--- a/Daraz Insights.xlsx
+++ b/Daraz Insights.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,20 +614,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HP Chromebook 11 G5 EE 11.6 Inch Laptop - Chrome OS - 4gb/16gb  with Free USB</t>
+          <t>Acer Chromebook C740 | 11.6 Inches | HD plus Display | 4GB Ram | FREE LAPTOP BAG | Windows 10 Installed | WiFi | Webcam | HDMI | USB Ports | Loudspeaker | Long Time Battery | Like New | 10/10 Condition | With Adapter (Charger)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4.7/5</t>
+          <t>4.8/5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rs.14,499</t>
+          <t>Rs.15,146</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -639,20 +639,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lenovo Thinkpad X240 - Core i5 4th Generation - 8GB RAM - 500GB HDD - 12.5inches Screen - FREE LAPTOP BAG</t>
+          <t>HP Chromebook 11 G5 EE 11.6 Inch Laptop - Chrome OS - 4gb/16gb  with Free USB</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.4/5</t>
+          <t>4.7/5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rs.28,799</t>
+          <t>Rs.14,499</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -664,20 +664,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Acer Chromebook C740 | 11.6 Inches | HD plus Display | 4GB Ram | FREE LAPTOP BAG | Windows 10 Installed | WiFi | Webcam | HDMI | USB Ports | Loudspeaker | Long Time Battery | Like New | 10/10 Condition | With Adapter (Charger)</t>
+          <t>Lenovo Thinkpad X240 - Core i5 4th Generation - 8GB RAM - 500GB HDD - 12.5inches Screen - FREE LAPTOP BAG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.8/5</t>
+          <t>4.4/5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rs.15,146</t>
+          <t>Rs.28,799</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -689,20 +689,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dell Latitude E5440 - Core i5 - 4th Generation - 4gb RAM - 128gb SSD - 14" Screen - Windows 10 Activated - Free Laptop Bag</t>
+          <t>Acer Chromebook C740 | 11.6 Inches | HD plus Display | 2GB Ram | 128GB SSD | FREE LAPTOP BAG | Windows 10 Installed | WiFi | Webcam | HDMI | USB Ports | Loudspeaker | Long Time Battery | Like New | 10/10 Condition | With Adapter (Charger)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>4.4/5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rs.31,999</t>
+          <t>Rs.12,499</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -714,20 +714,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dell 3189 Convertible Chromebook 11.6 inches HD IPS Touchscreen, Intel Celeron N3060 Up to 2.48GHz, 4GB Ram 16GB SSD, HDMI, WiFi, Webcam, Chrome OS - DARAZ LIKE NEW LAPTOPS</t>
+          <t>Dell Latitude E5440 - Core i5 - 4th Generation - 4gb RAM - 128gb SSD - 14" Screen - Windows 10 Activated - Free Laptop Bag</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4.3/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rs.14,799</t>
+          <t>Rs.31,999</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -764,20 +764,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hp Chromebook 11 G6 EE - 4GB RAM DDR4 - 16GB SSD EMMC - Playstore supported - 11.6" screen</t>
+          <t>LENOVO CHROMEBOOK 100E - 4GB RAM DDR4 - 32GB SSD EMMC - 11.6" SCREEN - PLAYSTORE SUPPORTED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.4/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rs.9,699</t>
+          <t>Rs.10,014</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -789,20 +789,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Acer Chromebook C740 | 11.6 Inches | HD plus Display | 2GB Ram | 128GB SSD | FREE LAPTOP BAG | Windows 10 Installed | WiFi | Webcam | HDMI | USB Ports | Loudspeaker | Long Time Battery | Like New | 10/10 Condition | With Adapter (Charger)</t>
+          <t>Hp Chromebook 11 G8 | 4GB RAM DDR4 | 32GB SSD Emmc| Playstore | 11.6" Display size</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4.6/5</t>
+          <t>4.7/5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rs.12,499</t>
+          <t>Rs.10,258</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -814,20 +814,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hp Elitebook 820 G3 - Core i5 6th Generation - 8GB DDR4 RAM - 128GB SSD - 500GB HDD -12.5inch Screen - FREE LAPTOP BAG (Windows 11 Licensed)</t>
+          <t>Dell 3189 Convertible Chromebook 11.6 inches HD IPS Touchscreen, Intel Celeron N3060 Up to 2.48GHz, 4GB Ram 16GB SSD, HDMI, WiFi, Webcam, Chrome OS - DARAZ LIKE NEW LAPTOPS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>4.3/5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rs.43,999</t>
+          <t>Rs.14,799</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -839,7 +839,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LENOVO CHROMEBOOK 100E - 4GB RAM DDR4 - 32GB SSD EMMC - 11.6" SCREEN - PLAYSTORE SUPPORTED</t>
+          <t>Lenovo N22/N23 Chromebook – 11.6″ – 4 GB RAM – 16 GB ROM – With Play Store - PUBG Supported</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rs.10,014</t>
+          <t>Rs.9,499</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -864,20 +864,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lenovo N22/N23 Chromebook – 11.6″ – 4 GB RAM – 16 GB ROM – With Play Store - PUBG Supported</t>
+          <t>Hp Chromebook 11 G6 EE - 4GB RAM DDR4 - 16GB SSD EMMC - Playstore supported - 11.6" screen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.7/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rs.9,499</t>
+          <t>Rs.9,699</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -889,20 +889,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hp Chromebook 11 G8 | 4GB RAM DDR4 | 32GB SSD Emmc| Playstore | 11.6" Display size</t>
+          <t>Acer ChromeBook R11 - Touch Screen Laptop - 16GB Storage - 4GB RAM - 360 Rotatable - 11.6″ HD Display - Playstore Supported - 8 Hours Long Battery Life</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>4.9/5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rs.10,258</t>
+          <t>Rs.13,500</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -914,20 +914,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Acer ChromeBook R11 - Touch Screen Laptop - 16GB Storage - 4GB RAM - 360 Rotatable - 11.6″ HD Display - Playstore Supported - 8 Hours Long Battery Life</t>
+          <t>Dells Computer Latitude E6400 E6410 E6500 E6510 Precision M2400 M4400 M4500 6-Cell</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4.3/5</t>
+          <t>4.7/5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rs.13,500</t>
+          <t>Rs.3,500</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -939,32 +939,32 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daraz Like New Laptops - HP EliteBook 840 G6 Notebook PC Intel Core i5 8th Generation, 8GB DDR4 Ram, 256GB SSD Drive, 14.1" Led Display, Intel FHD Graphics Card</t>
+          <t>HP Chromebook 11 G4 | 16GB Storage | 4GB RAM | 11.6″ Display | Playstore Supported Chromebook | Black - Daraz Like New Laptops</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3.7/5</t>
+          <t>4.6/5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rs.69,999</t>
+          <t>Rs.9,899</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>postive</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HP 250 G9 Notebook PC Intel Core i7-1255U Turbo up to 4.7 GHz 8 GB DDR4-3200 512 GB PCIe® NVMe 15.6" FHD (1920 x 1080) SVA backlit keyboard NO OS (1 Year Warranty)</t>
+          <t>Hp Elitebook 820 G3 - Core i5 6th Generation - 8GB DDR4 RAM - 128GB SSD - 500GB HDD -12.5inch Screen - FREE LAPTOP BAG (Windows 11 Licensed)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rs.198,499</t>
+          <t>Rs.43,999</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -989,45 +989,45 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hp Elitebook 820 G4 - Core i5 7th Generation - 16GB DDR4 RAM - 128GB SSD - 500GB HDD -12.5inch Screen - FREE LAPTOP BAG (Windows 11 Licensed)</t>
+          <t>Apple MacBook Pro A1278 - 8GB RAM, 500GB Storage - Dual-Core i5 2.5GHz  - Mid 2012 13.3-inch LED Display - Dual Operating System MacOS &amp; Windows 10 - Silver - Daraz Like New Laptops</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.4/5</t>
+          <t>3.9/5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rs.53,999</t>
+          <t>Rs.43,999</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>postive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Apple MacBook Pro A1278 - 8GB RAM, 500GB Storage - Dual-Core i5 2.5GHz  - Mid 2012 13.3-inch LED Display - Dual Operating System MacOS &amp; Windows 10 - Silver - Daraz Like New Laptops</t>
+          <t>Daraz Like New Laptops - Lenovo N23 Chromebook – 11.6″ – 4 G 4GB RAM, 16GB Storage, Chrome OS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>4.3/5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rs.43,999</t>
+          <t>Rs.9,899</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Daraz Like New Laptops - Dell (ULTRA BOOK) Latitude E7490 - Intel Core i5-8th Generation - 8gb DDR4 Ram - 256gb Ssd - 14 .1 Inch FHD Display - Backlit Keyboard - FREE LAPTOP BAG</t>
+          <t>Daraz Like New Laptops - HP EliteBook 840 G6 Notebook PC Intel Core i5 8th Generation, 8GB DDR4 Ram, 256GB SSD Drive, 14.1" Led Display, Intel FHD Graphics Card</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1048,11 +1048,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rs.62,499</t>
+          <t>Rs.69,999</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1069,11 +1069,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3.9/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1082,77 +1082,77 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>postive</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dell 3189 Convertible Chromebook Touchscreen, 4GB Ram 16GB SSD, HDMI, WiFi, Webcam, Chrome OS - FREE LAPTOP BAG</t>
+          <t>Lenovo N21/N22 Chromebook – 11.6″ – 4 GB RAM – 16 GB ROM – With Play Store - PUBG Supported - FREE LATOP MOUSE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4.7/5</t>
+          <t>3.7/5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rs.13,999</t>
+          <t>Rs.9,299</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>postive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lenovo Thinkpad T470 - Core i5 7th Generation - 8GB DDR4 - 256GB SSD - 14inch Screen - FREE LAPTOP BAG - Daraz like new laptops</t>
+          <t>Hp Elitebook 820 G4 - Core i5 7th Generation - 16GB DDR4 RAM - 128GB SSD - 500GB HDD -12.5inch Screen - FREE LAPTOP BAG (Windows 11 Licensed)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rs.49,999</t>
+          <t>Rs.53,999</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>postive</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Daraz Like New Laptops - Lenovo N23 Chromebook – 11.6″ – 4 G 4GB RAM, 16GB Storage, Chrome OS</t>
+          <t>Dell 3189 Convertible Chromebook Touchscreen, 4GB Ram 16GB SSD, HDMI, WiFi, Webcam, Chrome OS - FREE LAPTOP BAG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4.3/5</t>
+          <t>4.4/5</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rs.9,899</t>
+          <t>Rs.13,999</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1164,12 +1164,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HP Chromebook 11 G4 | 16GB Storage | 4GB RAM | 11.6″ Display | Playstore Supported Chromebook | Black - Daraz Like New Laptops</t>
+          <t>Hp Chromebook G8 - 4GB Ram DDR4 - 32GB SSD  - 11.6" Screen Size - Chrome OS -</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>4.7/5</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rs.9,899</t>
+          <t>Rs.10,199</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1189,12 +1189,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lenovo Thinkpad X250 - Core i5 5th Generation - 8GB RAM - 500GB HDD - 12.5inches Screen - FREE LAPTOP BAG</t>
+          <t>Lenovo Thinkpad T470 - Core i5 7th Generation - 8GB DDR4 - 256GB SSD - 14inch Screen - FREE LAPTOP BAG - Daraz like new laptops</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>4/5</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1202,19 +1202,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rs.28,999</t>
+          <t>Rs.49,999</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>postive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HP 250 G9 Notebook PC Intel Core i5-1235U Turbo up to 4.4 GHz 8 GB DDR4-3200 512 GB PCIe® NVMe 15.6" FHD (1920 x 1080) SVA backlit keyboard NO OS (1 Year Warranty)</t>
+          <t>HP Chromebook 11 G8 | 11.6 Inches | 4GB Ram DDR4 | 32GB SSD | FREE SURPRISE ACCESSORIES | ChromeOS | Playstore Installed | HD plus Display | Webcam | Loudspeaker | Long Time Battery | Like New | 10/9.5 Condition | With Adapter (Charger)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rs.165,499</t>
+          <t>Rs.11,999</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1239,20 +1239,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Acer Chromebook C740 | 11.6 Inches | HD plus Display | 4GB Fast Ram | 128gb SSD Storage (Expendable) | Windows 10 Installed | WiFi | Webcam | HDMI | USB Ports | Loudspeaker | Long Time Battery | Like New | 10/10 Condition | With Adapter (Charger)</t>
+          <t>LENOVO CHROMEBOOK 100E | 4GB RAM DDR4 | 32GB SSD EMMC | 11.6" SCREEN | PLAYSTORE SUPPORTED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4.7/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rs.16,499</t>
+          <t>Rs.9,965</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1264,37 +1264,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dell Latitude E7470 - Core i7 6th Generation - 8GB DDR4 RAM - 256GB SSD - 14inch Screen - FREE LAPTOP BAG</t>
+          <t>Lenovo Thinkpad X250 - Core i5 5th Generation - 8GB RAM - 500GB HDD - 12.5inches Screen - FREE LAPTOP BAG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3.9/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rs.51,999</t>
+          <t>Rs.28,999</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>postive</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lenovo ThinkPad  T440P  (14") 8 GB DDR3-SDRAM  256GB SSD Wi-Fi 5 (802.11ac) Black DARAZ LIKE NEW LAPTOPS</t>
+          <t>Acer Chromebook R11 | 11.6 Inches | Touch Screen | 360 Rotatable | 4GB Ram | 32GB SSD | FREE LAPTOP BAG | Playstore Installed | Best For Home &amp; Office Purpose | HD plus Display | Webcam | Loudspeaker | 10 Hours Battery | 10/9.5 Condition | With Charger</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4.7/5</t>
+          <t>5/5</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1302,12 +1302,37 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rs.34,499</t>
+          <t>Rs.15,344</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>postive</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Apple MacBook Pro 2011 A1278 Display 13-inch Laptop (Intel i5 2.5 GHz, 8 GB RAM, 500GB HDD, Intel HD, macOS High Sierra - Silver Free Bag</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3.7/5</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Rs.38,499</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1385,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hp Elitebook 820 G3 - Core i5 6th Generation - 8GB DDR4 RAM - 128GB SSD - 500GB HDD -12.5inch Screen - FREE LAPTOP BAG (Windows 11 Licensed)</t>
+          <t>LENOVO CHROMEBOOK 100E - 4GB RAM DDR4 - 32GB SSD EMMC - 11.6" SCREEN - PLAYSTORE SUPPORTED</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1373,7 +1398,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rs.43,999</t>
+          <t>Rs.10,014</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1385,7 +1410,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hp Chromebook 11 G8 | 4GB RAM DDR4 | 32GB SSD Emmc| Playstore | 11.6" Display size</t>
+          <t>Hp Chromebook 11 G6 EE - 4GB RAM DDR4 - 16GB SSD EMMC - Playstore supported - 11.6" screen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1398,7 +1423,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rs.10,258</t>
+          <t>Rs.9,699</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1410,7 +1435,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Apple MacBook Pro A1278 - 8GB RAM, 500GB Storage - Dual-Core i5 2.5GHz  - Mid 2012 13.3-inch LED Display - Dual Operating System MacOS &amp; Windows 10 - Silver - Daraz Like New Laptops</t>
+          <t>Hp Elitebook 820 G4 - Core i5 7th Generation - 16GB DDR4 RAM - 128GB SSD - 500GB HDD -12.5inch Screen - FREE LAPTOP BAG (Windows 11 Licensed)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1423,7 +1448,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rs.43,999</t>
+          <t>Rs.53,999</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1435,7 +1460,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HP Chromebook 11 G4 | 16GB Storage | 4GB RAM | 11.6″ Display | Playstore Supported Chromebook | Black - Daraz Like New Laptops</t>
+          <t>Acer Chromebook R11 | 11.6 Inches | Touch Screen | 360 Rotatable | 4GB Ram | 32GB SSD | FREE LAPTOP BAG | Playstore Installed | Best For Home &amp; Office Purpose | HD plus Display | Webcam | Loudspeaker | 10 Hours Battery | 10/9.5 Condition | With Charger</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1448,7 +1473,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rs.9,899</t>
+          <t>Rs.15,344</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1460,7 +1485,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HP 250 G9 Notebook PC Intel Core i5-1235U Turbo up to 4.4 GHz 8 GB DDR4-3200 512 GB PCIe® NVMe 15.6" FHD (1920 x 1080) SVA backlit keyboard NO OS (1 Year Warranty)</t>
+          <t>HP ELITEBOOK 840-G5 8TH GENERATION | INTEL CORE-I5 | 8250u PROCESSOR | 16GB RAM | 512GB SSD | FHD | 14.1’INCH DISPLAY | SILVER | WIN11 PRO | REGITERED (FREE LAPTOP BAG) - Daraz like new laptops</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1473,7 +1498,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rs.165,499</t>
+          <t>Rs.77,499</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
